--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -498,16 +498,16 @@
         <x:v>461</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>755</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>1549</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1638</x:v>
+        <x:v>1639</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>2</x:v>
@@ -521,19 +521,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1008</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2990</x:v>
+        <x:v>2995</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5330</x:v>
+        <x:v>5335</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6372</x:v>
+        <x:v>6374</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3442</x:v>
+        <x:v>3443</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>3</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -501,13 +501,13 @@
         <x:v>756</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1549</x:v>
+        <x:v>1552</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1639</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>2</x:v>
@@ -527,13 +527,13 @@
         <x:v>2995</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5335</x:v>
+        <x:v>5347</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6374</x:v>
+        <x:v>6378</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3443</x:v>
+        <x:v>3444</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>3</x:v>
@@ -709,7 +709,7 @@
         <x:v>724</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>1276</x:v>
+        <x:v>1277</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>1350</x:v>
@@ -735,7 +735,7 @@
         <x:v>1978</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>3307</x:v>
+        <x:v>3308</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>3374</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -527,10 +527,10 @@
         <x:v>2995</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5347</x:v>
+        <x:v>5348</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6378</x:v>
+        <x:v>6381</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3444</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -498,10 +498,10 @@
         <x:v>461</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>756</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1552</x:v>
+        <x:v>1551</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1639</x:v>
@@ -527,10 +527,10 @@
         <x:v>2995</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5348</x:v>
+        <x:v>5349</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6381</x:v>
+        <x:v>6383</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3444</x:v>
@@ -683,7 +683,7 @@
         <x:v>464</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>700</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -533,7 +533,7 @@
         <x:v>6383</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3444</x:v>
+        <x:v>3445</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>3</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -735,7 +735,7 @@
         <x:v>1978</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>3308</x:v>
+        <x:v>3307</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>3374</x:v>
@@ -813,7 +813,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>29</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -709,13 +709,13 @@
         <x:v>724</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>1277</x:v>
+        <x:v>1278</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>1350</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>761</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -741,7 +741,7 @@
         <x:v>3374</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>2114</x:v>
+        <x:v>2116</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -943,7 +943,7 @@
         <x:v>479</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>843</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>899</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -530,7 +530,7 @@
         <x:v>5349</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6383</x:v>
+        <x:v>6382</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3445</x:v>
@@ -706,7 +706,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>1278</x:v>
@@ -738,7 +738,7 @@
         <x:v>3307</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>3374</x:v>
+        <x:v>3375</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>2116</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -706,7 +706,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>725</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>1278</x:v>
@@ -738,10 +738,10 @@
         <x:v>3307</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>3375</x:v>
+        <x:v>3376</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>2116</x:v>
+        <x:v>2117</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -651,7 +651,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>222</x:v>
@@ -677,7 +677,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>661</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>464</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -527,7 +527,7 @@
         <x:v>2995</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5349</x:v>
+        <x:v>5350</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6382</x:v>
@@ -735,13 +735,13 @@
         <x:v>1978</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>3307</x:v>
+        <x:v>3308</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>3376</x:v>
+        <x:v>3377</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>2117</x:v>
+        <x:v>2116</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -530,7 +530,7 @@
         <x:v>5350</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6382</x:v>
+        <x:v>6383</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3445</x:v>
@@ -660,7 +660,7 @@
         <x:v>293</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>107</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -524,16 +524,16 @@
         <x:v>1007</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2995</x:v>
+        <x:v>2996</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5350</x:v>
+        <x:v>5355</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6383</x:v>
+        <x:v>6384</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3445</x:v>
+        <x:v>3447</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>3</x:v>
@@ -741,7 +741,7 @@
         <x:v>3377</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>2116</x:v>
+        <x:v>2115</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -943,7 +943,7 @@
         <x:v>479</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>844</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>899</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -530,7 +530,7 @@
         <x:v>5355</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6384</x:v>
+        <x:v>6386</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3447</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -501,10 +501,10 @@
         <x:v>757</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1551</x:v>
+        <x:v>1553</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1639</x:v>
+        <x:v>1641</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>710</x:v>
@@ -527,13 +527,13 @@
         <x:v>2996</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5355</x:v>
+        <x:v>5356</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6386</x:v>
+        <x:v>6387</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3447</x:v>
+        <x:v>3448</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>3</x:v>
@@ -689,7 +689,7 @@
         <x:v>700</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -709,7 +709,7 @@
         <x:v>726</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>1278</x:v>
+        <x:v>1279</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>1350</x:v>
@@ -735,7 +735,7 @@
         <x:v>1978</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>3308</x:v>
+        <x:v>3309</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>3377</x:v>
@@ -842,7 +842,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>1</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -735,7 +735,7 @@
         <x:v>1978</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>3309</x:v>
+        <x:v>3310</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>3377</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -937,7 +937,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>479</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -530,7 +530,7 @@
         <x:v>5356</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6387</x:v>
+        <x:v>6388</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3448</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -501,13 +501,13 @@
         <x:v>757</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1553</x:v>
+        <x:v>1555</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1641</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>2</x:v>
@@ -524,16 +524,16 @@
         <x:v>1007</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2996</x:v>
+        <x:v>2997</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5356</x:v>
+        <x:v>5361</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6388</x:v>
+        <x:v>6392</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3448</x:v>
+        <x:v>3449</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>3</x:v>
@@ -819,7 +819,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -501,7 +501,7 @@
         <x:v>757</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1555</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1641</x:v>
@@ -527,13 +527,13 @@
         <x:v>2997</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5361</x:v>
+        <x:v>5362</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6392</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3449</x:v>
+        <x:v>3451</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>3</x:v>
@@ -735,7 +735,7 @@
         <x:v>1978</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>3310</x:v>
+        <x:v>3311</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>3377</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -521,7 +521,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1007</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>2997</x:v>
@@ -533,7 +533,7 @@
         <x:v>6392</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3451</x:v>
+        <x:v>3450</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>3</x:v>
@@ -689,7 +689,7 @@
         <x:v>700</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -498,13 +498,13 @@
         <x:v>461</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>757</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>1556</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1641</x:v>
+        <x:v>1642</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>712</x:v>
@@ -527,13 +527,13 @@
         <x:v>2997</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5362</x:v>
+        <x:v>5365</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6392</x:v>
+        <x:v>6399</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3450</x:v>
+        <x:v>3452</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>3</x:v>
@@ -709,7 +709,7 @@
         <x:v>726</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>1279</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>1350</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -501,13 +501,13 @@
         <x:v>758</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1556</x:v>
+        <x:v>1555</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1642</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>712</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>2</x:v>
@@ -530,7 +530,7 @@
         <x:v>5365</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6399</x:v>
+        <x:v>6397</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3452</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -498,13 +498,13 @@
         <x:v>461</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>758</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>1555</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1642</x:v>
+        <x:v>1643</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>711</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -527,7 +527,7 @@
         <x:v>2997</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5365</x:v>
+        <x:v>5366</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6397</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>1555</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1643</x:v>
+        <x:v>1642</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>711</x:v>
@@ -530,7 +530,7 @@
         <x:v>5366</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6397</x:v>
+        <x:v>6398</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3452</x:v>
@@ -946,7 +946,7 @@
         <x:v>843</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>899</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>377</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -530,7 +530,7 @@
         <x:v>5366</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6398</x:v>
+        <x:v>6397</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3452</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -530,7 +530,7 @@
         <x:v>5366</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6397</x:v>
+        <x:v>6398</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3452</x:v>
@@ -712,7 +712,7 @@
         <x:v>1280</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>1350</x:v>
+        <x:v>1351</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>763</x:v>
@@ -946,7 +946,7 @@
         <x:v>843</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>900</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>377</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -501,7 +501,7 @@
         <x:v>760</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1555</x:v>
+        <x:v>1554</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1642</x:v>
@@ -527,7 +527,7 @@
         <x:v>2997</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5366</x:v>
+        <x:v>5365</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6398</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -530,7 +530,7 @@
         <x:v>5365</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6398</x:v>
+        <x:v>6399</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3452</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -501,7 +501,7 @@
         <x:v>760</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1554</x:v>
+        <x:v>1555</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1642</x:v>
@@ -527,7 +527,7 @@
         <x:v>2997</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5365</x:v>
+        <x:v>5366</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6399</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -524,13 +524,13 @@
         <x:v>1010</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2997</x:v>
+        <x:v>2998</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>5366</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6399</x:v>
+        <x:v>6401</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3452</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -521,7 +521,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1010</x:v>
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>2998</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -498,7 +498,7 @@
         <x:v>461</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>760</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>1555</x:v>
@@ -507,7 +507,7 @@
         <x:v>1642</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>711</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>2</x:v>
@@ -530,10 +530,10 @@
         <x:v>5366</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6401</x:v>
+        <x:v>6402</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3452</x:v>
+        <x:v>3451</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>3</x:v>
@@ -732,7 +732,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1978</x:v>
+        <x:v>1979</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>3311</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -507,7 +507,7 @@
         <x:v>1642</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>2</x:v>
@@ -524,7 +524,7 @@
         <x:v>1009</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2998</x:v>
+        <x:v>2997</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>5366</x:v>
@@ -715,7 +715,7 @@
         <x:v>1351</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>763</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -738,7 +738,7 @@
         <x:v>3311</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>3377</x:v>
+        <x:v>3378</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>2115</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -946,7 +946,7 @@
         <x:v>843</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>901</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>377</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -741,7 +741,7 @@
         <x:v>3378</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>2115</x:v>
+        <x:v>2116</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -709,7 +709,7 @@
         <x:v>726</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>1280</x:v>
+        <x:v>1279</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>1351</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -709,7 +709,7 @@
         <x:v>726</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>1279</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>1351</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -527,7 +527,7 @@
         <x:v>2997</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5366</x:v>
+        <x:v>5367</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6402</x:v>
@@ -689,7 +689,7 @@
         <x:v>700</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>505</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -738,7 +738,7 @@
         <x:v>3311</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>3378</x:v>
+        <x:v>3379</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>2116</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -501,7 +501,7 @@
         <x:v>762</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1555</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1642</x:v>
@@ -524,16 +524,16 @@
         <x:v>1009</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2997</x:v>
+        <x:v>2996</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5367</x:v>
+        <x:v>5369</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6402</x:v>
+        <x:v>6400</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3451</x:v>
+        <x:v>3450</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>3</x:v>
@@ -657,7 +657,7 @@
         <x:v>222</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>288</x:v>
@@ -677,16 +677,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>665</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>659</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>504</x:v>
@@ -712,10 +712,10 @@
         <x:v>1280</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>1351</x:v>
+        <x:v>1352</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>764</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -729,16 +729,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1979</x:v>
+        <x:v>1982</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>3311</x:v>
+        <x:v>3316</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>3379</x:v>
+        <x:v>3385</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>2116</x:v>
@@ -888,13 +888,13 @@
         <x:v>422</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1164</x:v>
+        <x:v>1163</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>177</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>130</x:v>
@@ -946,7 +946,7 @@
         <x:v>843</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>900</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>377</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -501,7 +501,7 @@
         <x:v>762</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1556</x:v>
+        <x:v>1555</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1642</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -735,7 +735,7 @@
         <x:v>1982</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>3316</x:v>
+        <x:v>3315</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>3385</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -530,7 +530,7 @@
         <x:v>5369</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6400</x:v>
+        <x:v>6401</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3450</x:v>
@@ -741,7 +741,7 @@
         <x:v>3385</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>2116</x:v>
+        <x:v>2117</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -530,7 +530,7 @@
         <x:v>5369</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6401</x:v>
+        <x:v>6400</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3450</x:v>
@@ -862,7 +862,7 @@
         <x:v>387</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>90</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -524,10 +524,10 @@
         <x:v>1009</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2996</x:v>
+        <x:v>2997</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5369</x:v>
+        <x:v>5371</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6400</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -521,7 +521,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1009</x:v>
+        <x:v>1008</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>2997</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>1555</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1642</x:v>
+        <x:v>1643</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>711</x:v>
@@ -527,7 +527,7 @@
         <x:v>2997</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5371</x:v>
+        <x:v>5372</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6400</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -712,7 +712,7 @@
         <x:v>1280</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>1352</x:v>
+        <x:v>1353</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>766</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Group B Arrests" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Group B Arrests" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Offense Category</x:t>
   </x:si>
@@ -46,31 +46,223 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
+    <x:t>461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1555</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1643</x:t>
+  </x:si>
+  <x:si>
+    <x:t>711</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
     <x:t>Male</x:t>
   </x:si>
   <x:si>
+    <x:t>1008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2997</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
     <x:t>Bad Checks</x:t>
   </x:si>
   <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
+    <x:t>408</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>463</x:t>
+  </x:si>
+  <x:si>
+    <x:t>657</x:t>
+  </x:si>
+  <x:si>
+    <x:t>701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>504</x:t>
+  </x:si>
+  <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>726</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1353</x:t>
+  </x:si>
+  <x:si>
+    <x:t>766</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1982</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2117</x:t>
+  </x:si>
+  <x:si>
     <x:t>Drunkenness</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
   </x:si>
   <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>555</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
     <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>364</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>479</x:t>
+  </x:si>
+  <x:si>
+    <x:t>843</x:t>
+  </x:si>
+  <x:si>
+    <x:t>901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>377</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -79,7 +271,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,###,##0"/>
+    <x:numFmt numFmtId="164" formatCode="#,###,##0"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -129,13 +321,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -144,7 +336,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -152,7 +344,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -447,7 +639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -494,23 +686,23 @@
       <x:c r="B2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="n">
-        <x:v>461</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="n">
-        <x:v>762</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="n">
-        <x:v>1555</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="n">
-        <x:v>1643</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="n">
-        <x:v>711</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="n">
-        <x:v>2</x:v>
+      <x:c r="C2" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -518,441 +710,441 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="n">
-        <x:v>1008</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="n">
-        <x:v>2997</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="n">
-        <x:v>5372</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="n">
-        <x:v>6400</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="n">
-        <x:v>3450</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C4" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H5" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C6" s="1" t="n">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H6" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C6" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H6" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="n">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H7" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C8" s="1" t="n">
-        <x:v>408</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="n">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="n">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="F8" s="1" t="n">
-        <x:v>288</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="n">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="H8" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C8" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="n">
-        <x:v>663</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="n">
-        <x:v>463</x:v>
-      </x:c>
-      <x:c r="E9" s="1" t="n">
-        <x:v>657</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="n">
-        <x:v>701</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="n">
-        <x:v>504</x:v>
-      </x:c>
-      <x:c r="H9" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C10" s="1" t="n">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="n">
-        <x:v>726</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="n">
-        <x:v>1280</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="n">
-        <x:v>1353</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="n">
-        <x:v>766</x:v>
-      </x:c>
-      <x:c r="H10" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C10" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="n">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="n">
-        <x:v>1982</x:v>
-      </x:c>
-      <x:c r="E11" s="1" t="n">
-        <x:v>3315</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="n">
-        <x:v>3385</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="n">
-        <x:v>2117</x:v>
-      </x:c>
-      <x:c r="H11" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H11" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C12" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D12" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E12" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F12" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H12" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D13" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E13" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F13" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H13" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F13" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G13" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H13" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C14" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D14" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E14" s="1" t="n">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F14" s="1" t="n">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H14" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C14" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F14" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G14" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H14" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D15" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E15" s="1" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F15" s="1" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H15" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C15" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F15" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G15" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H15" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C16" s="1" t="n">
-        <x:v>387</x:v>
-      </x:c>
-      <x:c r="D16" s="1" t="n">
-        <x:v>555</x:v>
-      </x:c>
-      <x:c r="E16" s="1" t="n">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F16" s="1" t="n">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="n">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H16" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C16" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F16" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G16" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C17" s="1" t="n">
-        <x:v>422</x:v>
-      </x:c>
-      <x:c r="D17" s="1" t="n">
-        <x:v>1163</x:v>
-      </x:c>
-      <x:c r="E17" s="1" t="n">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="F17" s="1" t="n">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="G17" s="1" t="n">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="H17" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F17" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H17" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C18" s="1" t="n">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D18" s="1" t="n">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="E18" s="1" t="n">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="F18" s="1" t="n">
-        <x:v>364</x:v>
-      </x:c>
-      <x:c r="G18" s="1" t="n">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="H18" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C18" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C19" s="1" t="n">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="D19" s="1" t="n">
-        <x:v>479</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="n">
-        <x:v>843</x:v>
-      </x:c>
-      <x:c r="F19" s="1" t="n">
-        <x:v>901</x:v>
-      </x:c>
-      <x:c r="G19" s="1" t="n">
-        <x:v>377</x:v>
-      </x:c>
-      <x:c r="H19" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F19" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G19" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -154,7 +154,7 @@
     <x:t>726</x:t>
   </x:si>
   <x:si>
-    <x:t>1280</x:t>
+    <x:t>1281</x:t>
   </x:si>
   <x:si>
     <x:t>1353</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -163,7 +163,7 @@
     <x:t>766</x:t>
   </x:si>
   <x:si>
-    <x:t>1982</x:t>
+    <x:t>1983</x:t>
   </x:si>
   <x:si>
     <x:t>3315</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -67,13 +67,13 @@
     <x:t>Male</x:t>
   </x:si>
   <x:si>
-    <x:t>1008</x:t>
+    <x:t>1009</x:t>
   </x:si>
   <x:si>
     <x:t>2997</x:t>
   </x:si>
   <x:si>
-    <x:t>5371</x:t>
+    <x:t>5370</x:t>
   </x:si>
   <x:si>
     <x:t>6400</x:t>
@@ -169,7 +169,7 @@
     <x:t>3315</x:t>
   </x:si>
   <x:si>
-    <x:t>3385</x:t>
+    <x:t>3386</x:t>
   </x:si>
   <x:si>
     <x:t>2117</x:t>
@@ -220,7 +220,7 @@
     <x:t>422</x:t>
   </x:si>
   <x:si>
-    <x:t>1163</x:t>
+    <x:t>1164</x:t>
   </x:si>
   <x:si>
     <x:t>177</x:t>
@@ -253,10 +253,10 @@
     <x:t>171</x:t>
   </x:si>
   <x:si>
-    <x:t>479</x:t>
-  </x:si>
-  <x:si>
-    <x:t>843</x:t>
+    <x:t>480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>844</x:t>
   </x:si>
   <x:si>
     <x:t>901</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -73,7 +73,7 @@
     <x:t>2997</x:t>
   </x:si>
   <x:si>
-    <x:t>5370</x:t>
+    <x:t>5369</x:t>
   </x:si>
   <x:si>
     <x:t>6400</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -151,7 +151,7 @@
     <x:t>49</x:t>
   </x:si>
   <x:si>
-    <x:t>726</x:t>
+    <x:t>727</x:t>
   </x:si>
   <x:si>
     <x:t>1281</x:t>
@@ -169,7 +169,7 @@
     <x:t>3315</x:t>
   </x:si>
   <x:si>
-    <x:t>3386</x:t>
+    <x:t>3387</x:t>
   </x:si>
   <x:si>
     <x:t>2117</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -67,16 +67,16 @@
     <x:t>Male</x:t>
   </x:si>
   <x:si>
-    <x:t>1009</x:t>
+    <x:t>1010</x:t>
   </x:si>
   <x:si>
     <x:t>2997</x:t>
   </x:si>
   <x:si>
-    <x:t>5369</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6400</x:t>
+    <x:t>5370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6401</x:t>
   </x:si>
   <x:si>
     <x:t>3450</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -76,7 +76,7 @@
     <x:t>5370</x:t>
   </x:si>
   <x:si>
-    <x:t>6401</x:t>
+    <x:t>6402</x:t>
   </x:si>
   <x:si>
     <x:t>3450</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -58,7 +58,7 @@
     <x:t>1643</x:t>
   </x:si>
   <x:si>
-    <x:t>711</x:t>
+    <x:t>712</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -70,7 +70,7 @@
     <x:t>1010</x:t>
   </x:si>
   <x:si>
-    <x:t>2997</x:t>
+    <x:t>2998</x:t>
   </x:si>
   <x:si>
     <x:t>5370</x:t>
@@ -169,7 +169,7 @@
     <x:t>3315</x:t>
   </x:si>
   <x:si>
-    <x:t>3387</x:t>
+    <x:t>3388</x:t>
   </x:si>
   <x:si>
     <x:t>2117</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -73,7 +73,7 @@
     <x:t>2998</x:t>
   </x:si>
   <x:si>
-    <x:t>5370</x:t>
+    <x:t>5371</x:t>
   </x:si>
   <x:si>
     <x:t>6402</x:t>
@@ -220,7 +220,7 @@
     <x:t>422</x:t>
   </x:si>
   <x:si>
-    <x:t>1164</x:t>
+    <x:t>1165</x:t>
   </x:si>
   <x:si>
     <x:t>177</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -73,7 +73,7 @@
     <x:t>2998</x:t>
   </x:si>
   <x:si>
-    <x:t>5371</x:t>
+    <x:t>5369</x:t>
   </x:si>
   <x:si>
     <x:t>6402</x:t>
@@ -130,7 +130,7 @@
     <x:t>107</x:t>
   </x:si>
   <x:si>
-    <x:t>663</x:t>
+    <x:t>664</x:t>
   </x:si>
   <x:si>
     <x:t>463</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -73,10 +73,10 @@
     <x:t>2998</x:t>
   </x:si>
   <x:si>
-    <x:t>5369</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6402</x:t>
+    <x:t>5370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6403</x:t>
   </x:si>
   <x:si>
     <x:t>3450</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -76,7 +76,7 @@
     <x:t>5370</x:t>
   </x:si>
   <x:si>
-    <x:t>6403</x:t>
+    <x:t>6404</x:t>
   </x:si>
   <x:si>
     <x:t>3450</x:t>
